--- a/9/cfrp2=1/9_cfrp2=1_SS.xlsx
+++ b/9/cfrp2=1/9_cfrp2=1_SS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay0423/Documents/GitHub/ansys-management-3dPrinter/9/cfrp2=1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D98876-0D5A-6940-A151-33AE6F9F9C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C20F57-7218-8642-AECB-EA9EC8A9EAEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2390,6 +2390,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en"/>
               <a:t>9_c21_th0.564</a:t>
             </a:r>
           </a:p>
@@ -2421,7 +2422,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="104"/>
                 <c:pt idx="0">
-                  <c:v>2.5000000000000001E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5.0000000000000001E-4</c:v>
@@ -2742,7 +2743,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="104"/>
                 <c:pt idx="0">
-                  <c:v>0.68082142857142858</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.3616428571428569</c:v>
@@ -3092,6 +3093,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Strain [-]</a:t>
                 </a:r>
               </a:p>
@@ -3125,6 +3127,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Stress [MPa]</a:t>
                 </a:r>
               </a:p>
@@ -3181,6 +3184,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
               <a:t>10%</a:t>
             </a:r>
           </a:p>
@@ -3212,7 +3216,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2.5000000000000001E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5.0000000000000001E-4</c:v>
@@ -3248,7 +3252,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.68082142857142858</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.3616428571428569</c:v>
@@ -3313,6 +3317,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Strain [-]</a:t>
                 </a:r>
               </a:p>
@@ -3346,6 +3351,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Stress [MPa]</a:t>
                 </a:r>
               </a:p>
@@ -5816,7 +5822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
@@ -8803,7 +8809,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
@@ -8832,10 +8840,10 @@
         <v>47.657499999999999</v>
       </c>
       <c r="C2">
-        <v>2.5000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.68082142857142858</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>

--- a/9/cfrp2=1/9_cfrp2=1_SS.xlsx
+++ b/9/cfrp2=1/9_cfrp2=1_SS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay0423/Documents/GitHub/ansys-management-3dPrinter/9/cfrp2=1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C20F57-7218-8642-AECB-EA9EC8A9EAEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CDA157-F842-0943-BA0D-41412ACE1B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -183,6 +183,1474 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1.13 mm</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'9_c21_th0.564'!$C$2:$C$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="104"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5000000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.25E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.75E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2499999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.7499999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5000000000000009E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.749999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.5000000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.2500000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.4999999999999989E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.2500000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.5000000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.7499999999999991E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.2499999999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.4999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.7500000000000017E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.025E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.0500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.0749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.15E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.175E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.225E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.2500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.2749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.325E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.35E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.375E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.4250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.4500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.4749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.525E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.55E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.575E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.6250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.6500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.6750000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.7250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.7500000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.7749999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.8249999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.8499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.8749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.925E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.95E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.975E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.0250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.0500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.0750000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.1250000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.1499999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.1749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.2249999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.2499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.2749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.325E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.35E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.375E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.4250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.4500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.4750000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.4875000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.4937500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.4962499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.498125E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'9_c21_th0.564'!$D$2:$D$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="104"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3616428571428569</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0424571428571432</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7232857142857139</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4041000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0849285714285717</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.7657428571428566</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.4465714285714286</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.1273857142857144</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.8082142857142864</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.4890285714285714</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.1698571428571434</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.8506714285714292</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.5315000000000012</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.212314285714291</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.893142857142861</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.57395714285714</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.2545</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.93487142857143</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.61528571428572</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14.29542857142857</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14.97442857142857</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15.653142857142861</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16.33071428571429</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>17.007000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17.679714285714279</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>18.347999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>19.004857142857141</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>19.64828571428572</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>20.273428571428571</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>20.90585714285714</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>21.53257142857143</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>22.138999999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>22.779142857142858</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>23.425142857142859</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>24.070285714285721</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>24.717571428571429</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>25.36542857142857</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>26.013000000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>26.66357142857143</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>27.312142857142859</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>27.95814285714286</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>28.599142857142859</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>29.24342857142857</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>29.893000000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>30.540285714285719</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>31.184999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>31.829142857142859</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>32.466285714285711</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>33.108714285714292</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>33.726285714285723</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>34.273285714285713</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>34.726999999999997</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>34.941571428571429</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>34.908428571428573</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>34.551142857142857</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>33.861714285714292</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>32.586285714285722</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>29.460714285714289</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>24.737285714285711</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>15.62757142857143</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>9.2256714285714292</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7.4344999999999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.0487571428571432</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.3375428571428571</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.8121142857142858</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.361528571428571</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.1723571428571429</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.030985714285714</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.8978285714285721</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.746585714285714</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.5734571428571431</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.2638557142857141</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.157992857142857</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.0870171428571429</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.99519714285714278</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.90527714285714289</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.84809000000000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.79677142857142857</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.75549428571428567</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.73273857142857146</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.70210714285714282</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.68364142857142862</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.66199857142857144</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.64025999999999994</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.61717857142857147</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.59474714285714292</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.58576857142857142</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.56785285714285705</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.55651714285714293</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.55040428571428579</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.53761999999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.52343714285714282</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.51607142857142863</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.50963714285714279</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.50811714285714282</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.5022428571428571</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.49661285714285719</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.49829857142857142</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.49814142857142862</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.49597857142857138</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.49336714285714278</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.48998000000000003</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.48570714285714278</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-16BC-4E4D-A438-067ECEA8F166}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>0.902 mm</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'9_c21_th0.451'!$C$2:$C$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>2.5000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5000000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.25E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.75E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2499999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.7499999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5000000000000009E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.749999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.5000000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.2500000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.4999999999999989E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.2500000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.5000000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.7499999999999991E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.2499999999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.4999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.7500000000000017E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.025E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.0500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.0749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.15E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.175E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.225E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.2500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.2749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.325E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.35E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.375E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.4250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.4500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.4749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.525E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.55E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.575E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.6250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.6500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.6750000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.7250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.7500000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.7749999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.8249999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.8499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.8749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.925E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.95E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.975E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.0250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.0500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.0750000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.1250000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.1499999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.1749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.2249999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.2499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.2749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.325E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.35E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.375E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.4250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.4500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.4750000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'9_c21_th0.451'!$D$2:$D$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.6118757142857143</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.223751428571429</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8356285714285709</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4474999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0593857142857139</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.6712571428571432</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.2831285714285716</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.8949999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.5068857142857146</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.1187571428571426</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.7306285714285714</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.3425142857142864</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.9543857142857144</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.5662571428571432</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.1781428571428574</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.7900142857142871</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10.40188571428571</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.013771428571429</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11.62551428571429</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12.23724285714286</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12.848599999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13.459771428571431</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14.07055714285714</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14.681428571428571</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15.29171428571429</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15.90057142857143</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>16.506142857142859</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>17.10857142857143</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>17.70814285714286</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>18.301285714285711</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>18.879857142857141</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>19.44285714285714</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>20.02785714285714</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>20.618285714285719</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>21.21442857142857</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>21.81042857142857</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>22.406142857142861</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>22.998428571428569</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>23.591142857142859</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>24.185857142857142</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>24.777285714285711</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>25.367999999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>25.963571428571431</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>26.555857142857139</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>27.15071428571429</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>27.74342857142857</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>28.336857142857141</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>28.93214285714286</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>29.526142857142851</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>30.116714285714291</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>30.705285714285711</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>31.297000000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>31.887285714285721</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>32.478000000000002</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>33.069428571428567</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>33.656999999999996</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>34.241428571428571</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>34.821285714285708</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>35.402999999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>35.969000000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>36.48985714285714</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>36.793428571428571</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>36.548142857142857</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>35.602285714285713</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>30.612857142857141</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>23.970142857142861</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>19.654857142857139</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>14.75357142857143</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>9.0269999999999992</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7.4252000000000002</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>6.1670142857142851</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5.0960999999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3.8993714285714289</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.9619</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.65453428571428574</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.34548142857142861</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.2847142857142857</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.26019428571428571</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.25612428571428569</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.25190428571428569</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.25272857142857141</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.25524857142857138</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.25834000000000001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.25508857142857139</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.25674000000000002</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.25498714285714291</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.25460142857142848</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.2411814285714286</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.21149000000000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.19530857142857139</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.17774428571428569</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.16583428571428571</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.1606342857142857</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.1561942857142857</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.15490999999999999</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.15568142857142861</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.15680285714285719</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.15733</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.1570542857142857</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.15563142857142859</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-16BC-4E4D-A438-067ECEA8F166}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="10"/>
+        <c:axId val="20"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2.5000000000000005E-2"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en"/>
+                  <a:t>Strain [-]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="20"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5.000000000000001E-3"/>
+        <c:minorUnit val="2.5000000000000005E-3"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="20"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en"/>
+                  <a:t>Stress [MPa]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:minorUnit val="2.5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1905133576047745"/>
+          <c:y val="0.16687182367122261"/>
+          <c:w val="0.20150732299303448"/>
+          <c:h val="0.15865087134809147"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1600" b="0">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-ea"/>
+          <a:ea typeface="+mn-ea"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
@@ -193,7 +1661,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>9_c21_th0.339</a:t>
+              <a:t>10%</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -219,10 +1687,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'9_c21_th0.339'!$C$2:$C$102</c:f>
+              <c:f>'9_c21_th0.677'!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2.5000000000000001E-4</c:v>
                 </c:pt>
@@ -249,594 +1717,42 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2.2499999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.5000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.7499999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.2499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.5000000000000009E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.749999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.2500000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.4999999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.7499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5.2500000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5.4999999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5.7499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>6.2500000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6.5000000000000006E-3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6.7499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>7.000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>7.2500000000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>7.4999999999999989E-3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>7.7499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>8.0000000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>8.2500000000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>8.5000000000000006E-3</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>8.7499999999999991E-3</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>8.9999999999999993E-3</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>9.2499999999999995E-3</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>9.4999999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>9.7500000000000017E-3</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.025E-2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1.0500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1.0749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1.0999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1.125E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1.15E-2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1.175E-2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1.2E-2</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1.225E-2</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1.2500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1.2749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1.2999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1.325E-2</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1.35E-2</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1.375E-2</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1.4E-2</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1.4250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1.4500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1.4749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1.525E-2</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1.55E-2</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.575E-2</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1.6E-2</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1.6250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1.6500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1.6750000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1.7000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1.7250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1.7500000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1.7749999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1.7999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1.8249999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1.8499999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1.8749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1.9E-2</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1.925E-2</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1.95E-2</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1.975E-2</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>2.0250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>2.0500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>2.0750000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>2.1000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>2.1250000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>2.1499999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>2.1749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>2.1999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>2.2249999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>2.2499999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>2.2749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>2.3E-2</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>2.325E-2</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>2.35E-2</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>2.375E-2</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>2.4E-2</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>2.4250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>2.4500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>2.4750000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>2.4875000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'9_c21_th0.339'!$D$2:$D$102</c:f>
+              <c:f>'9_c21_th0.677'!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.55376999999999998</c:v>
+                  <c:v>0.75732571428571427</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.107538571428571</c:v>
+                  <c:v>1.5146571428571429</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.661314285714286</c:v>
+                  <c:v>2.2719857142857141</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.215071428571429</c:v>
+                  <c:v>3.0293000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7688428571428569</c:v>
+                  <c:v>3.7866285714285719</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.3226142857142862</c:v>
+                  <c:v>4.5439571428571428</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.8763857142857141</c:v>
+                  <c:v>5.3012857142857142</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.4301571428571416</c:v>
+                  <c:v>6.0586142857142864</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.9839285714285717</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.5377000000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.0914714285714284</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.6452285714285706</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7.1989999999999998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7.7527714285714282</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8.3065428571428566</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8.8603142857142849</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>9.4140857142857133</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>9.9678571428571434</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>10.521614285714289</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>11.075385714285719</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>11.629099999999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>12.182871428571429</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>12.73658571428571</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>13.290242857142861</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>13.843528571428569</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>14.396571428571431</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>14.94914285714286</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>15.50114285714286</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>16.051857142857141</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>16.599714285714281</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>17.14385714285714</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>17.681571428571431</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>18.217857142857142</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>18.751000000000001</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>19.294142857142859</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>19.839857142857142</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>20.385285714285711</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>20.931571428571431</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>21.478999999999999</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>22.026428571428571</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>22.572571428571429</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>23.11957142857143</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>23.666142857142859</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>24.213142857142859</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>24.757999999999999</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>25.304571428571428</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>25.851142857142861</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>26.398857142857139</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>26.944714285714291</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>27.48742857142857</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>28.027142857142859</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>28.56757142857143</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>29.105428571428568</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>29.64057142857143</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>30.174428571428571</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>30.713000000000001</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>31.248999999999999</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>31.785</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>32.315428571428569</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>32.824571428571417</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>32.938857142857138</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>32.709571428571429</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>33.07442857142857</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>33.406142857142846</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>33.029714285714277</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>31.918857142857149</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>29.636142857142861</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>23.323142857142859</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>19.004285714285711</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>15.508142857142859</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>11.647314285714289</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>5.8832000000000004</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1.595057142857143</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.73876142857142857</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.45587571428571427</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.38666714285714288</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.36107428571428568</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.33593000000000001</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.27839428571428571</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.24774142857142861</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.24454142857142849</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.24490999999999999</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.23692857142857141</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.23397571428571429</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.22705857142857139</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.22838285714285711</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.22645428571428569</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.2222257142857143</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.2239585714285714</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.2252442857142857</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.22709714285714289</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.22678857142857139</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.22256571428571431</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.22128999999999999</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.21904714285714291</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.21585428571428569</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.2174428571428571</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.21968285714285721</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.22138857142857141</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.2224342857142857</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0.22271285714285721</c:v>
+                  <c:v>6.8159428571428569</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -844,7 +1760,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-193D-2149-AF4D-D4F3BD365EBC}"/>
+              <c16:uniqueId val="{00000000-24C4-CD42-AC4B-10A16324C124}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -942,7 +1858,798 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>9_c21_th0.79</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'9_c21_th0.79'!$C$2:$C$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="104"/>
+                <c:pt idx="0">
+                  <c:v>2.5000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5000000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.25E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.75E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2499999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.7499999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5000000000000009E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.749999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.5000000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.2500000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.4999999999999989E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.2500000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.5000000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.7499999999999991E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.2499999999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.4999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.7500000000000017E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.025E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.0500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.0749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.15E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.175E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.225E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.2500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.2749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.325E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.35E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.375E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.4250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.4500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.4749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.525E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.55E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.575E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.6250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.6500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.6750000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.7250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.7500000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.7749999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.8249999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.8499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.8749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.925E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.95E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.975E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.0250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.0500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.0750000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.1250000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.1499999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.1749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.2249999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.2499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.2749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.325E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.35E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.375E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.4250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.4500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.4750000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.4875000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.4937500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.4962499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.498125E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'9_c21_th0.79'!$D$2:$D$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="104"/>
+                <c:pt idx="0">
+                  <c:v>0.83870571428571428</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.677414285714286</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.516114285714286</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.354828571428571</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1935285714285717</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0322428571428572</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.8709428571428566</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.7096428571428577</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.5483571428571423</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.3870571428571434</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.225771428571429</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.06447142857143</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.90318571428571</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.74188571428571</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12.580585714285711</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.4193</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14.257757142857139</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15.09614285714286</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15.934142857142859</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16.771999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17.608714285714289</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18.444714285714291</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19.279714285714281</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20.110571428571429</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>20.937000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>21.754285714285711</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>22.555571428571429</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>23.330571428571432</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>24.070428571428572</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>24.766285714285711</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>25.364142857142859</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>26.056999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>26.802142857142861</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>27.549428571428571</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>28.303000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>29.06128571428571</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>29.827571428571432</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>30.590714285714281</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>31.344571428571431</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>32.080285714285708</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>32.77928571428572</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>33.382428571428569</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>33.760857142857148</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>33.821571428571431</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>33.620428571428569</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>33.222285714285711</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>32.83757142857143</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>32.369714285714288</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>31.55985714285714</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>28.472285714285711</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>24.48657142857143</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>21.052857142857139</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>13.13132857142857</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>10.69641428571429</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>8.4500999999999991</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6.7656428571428577</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.5536571428571424</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.4806857142857144</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.3381857142857139</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.1756142857142859</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.5023142857142859</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.3164128571428571</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.18973</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.0658828571428569</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.0030942857142859</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.94843428571428567</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.89298</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.84444285714285705</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.80870999999999993</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.76700857142857148</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.72726857142857138</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.70737000000000005</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.68728428571428579</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.67763571428571423</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.66249000000000002</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.6404657142857143</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.62731999999999999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.6240242857142857</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.62144571428571427</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.6169485714285714</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.61430285714285715</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.6023857142857143</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.60158571428571428</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.59611428571428571</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.59361714285714284</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.59397285714285708</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.59271142857142856</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.59562428571428572</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.59650000000000003</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.59841714285714287</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.59597428571428579</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.5992128571428571</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.60134857142857145</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.59870714285714288</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.59495142857142858</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.59179999999999999</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.58817428571428565</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.58637000000000006</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.58552285714285723</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.58685142857142858</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.58454285714285714</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.58180428571428577</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.57580857142857145</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.56958000000000009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-58A1-C942-B445-AE7A5BF5618E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="10"/>
+        <c:axId val="20"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Strain [-]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="20"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="20"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Stress [MPa]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -1187,7 +2894,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>10%</a:t>
+              <a:t>9_c21_th0.339</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1213,10 +2920,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'9_c21_th0.339'!$C$2:$C$10</c:f>
+              <c:f>'9_c21_th0.339'!$C$2:$C$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>2.5000000000000001E-4</c:v>
                 </c:pt>
@@ -1243,16 +2950,292 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2.2499999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.7499999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5000000000000009E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.749999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.5000000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.2500000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.4999999999999989E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.2500000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.5000000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.7499999999999991E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.2499999999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.4999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.7500000000000017E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.025E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.0500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.0749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.15E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.175E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.225E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.2500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.2749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.325E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.35E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.375E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.4250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.4500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.4749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.525E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.55E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.575E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.6250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.6500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.6750000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.7250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.7500000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.7749999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.8249999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.8499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.8749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.925E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.95E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.975E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.0250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.0500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.0750000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.1250000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.1499999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.1749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.2249999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.2499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.2749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.325E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.35E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.375E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.4250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.4500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.4750000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.4875000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'9_c21_th0.339'!$D$2:$D$10</c:f>
+              <c:f>'9_c21_th0.339'!$D$2:$D$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0.55376999999999998</c:v>
                 </c:pt>
@@ -1279,6 +3262,282 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>4.9839285714285717</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.5377000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.0914714285714284</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.6452285714285706</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.1989999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.7527714285714282</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.3065428571428566</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.8603142857142849</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.4140857142857133</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.9678571428571434</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.521614285714289</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11.075385714285719</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11.629099999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12.182871428571429</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12.73658571428571</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>13.290242857142861</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>13.843528571428569</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>14.396571428571431</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>14.94914285714286</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>15.50114285714286</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>16.051857142857141</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>16.599714285714281</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>17.14385714285714</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>17.681571428571431</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>18.217857142857142</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18.751000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>19.294142857142859</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>19.839857142857142</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20.385285714285711</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20.931571428571431</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>21.478999999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>22.026428571428571</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>22.572571428571429</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>23.11957142857143</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>23.666142857142859</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>24.213142857142859</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>24.757999999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>25.304571428571428</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>25.851142857142861</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>26.398857142857139</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>26.944714285714291</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>27.48742857142857</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>28.027142857142859</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>28.56757142857143</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>29.105428571428568</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>29.64057142857143</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>30.174428571428571</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>30.713000000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>31.248999999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>31.785</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>32.315428571428569</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>32.824571428571417</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>32.938857142857138</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>32.709571428571429</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>33.07442857142857</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>33.406142857142846</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>33.029714285714277</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>31.918857142857149</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>29.636142857142861</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>23.323142857142859</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>19.004285714285711</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>15.508142857142859</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>11.647314285714289</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5.8832000000000004</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.595057142857143</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.73876142857142857</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.45587571428571427</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.38666714285714288</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.36107428571428568</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.33593000000000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.27839428571428571</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.24774142857142861</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.24454142857142849</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.24490999999999999</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.23692857142857141</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.23397571428571429</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.22705857142857139</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.22838285714285711</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.22645428571428569</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.2222257142857143</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.2239585714285714</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.2252442857142857</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.22709714285714289</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.22678857142857139</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.22256571428571431</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.22128999999999999</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.21904714285714291</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.21585428571428569</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.2174428571428571</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.21968285714285721</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.22138857142857141</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.2224342857142857</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.22271285714285721</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1286,7 +3545,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EF30-5145-9A50-1522223953C3}"/>
+              <c16:uniqueId val="{00000000-193D-2149-AF4D-D4F3BD365EBC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1408,7 +3667,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>9_c21_th0.451</a:t>
+              <a:t>10%</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1434,10 +3693,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'9_c21_th0.451'!$C$2:$C$101</c:f>
+              <c:f>'9_c21_th0.339'!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2.5000000000000001E-4</c:v>
                 </c:pt>
@@ -1464,588 +3723,42 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2.2499999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.5000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.7499999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.2499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.5000000000000009E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.749999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.2500000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.4999999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.7499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5.2500000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5.4999999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5.7499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>6.2500000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6.5000000000000006E-3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6.7499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>7.000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>7.2500000000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>7.4999999999999989E-3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>7.7499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>8.0000000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>8.2500000000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>8.5000000000000006E-3</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>8.7499999999999991E-3</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>8.9999999999999993E-3</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>9.2499999999999995E-3</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>9.4999999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>9.7500000000000017E-3</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.025E-2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1.0500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1.0749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1.0999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1.125E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1.15E-2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1.175E-2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1.2E-2</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1.225E-2</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1.2500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1.2749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1.2999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1.325E-2</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1.35E-2</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1.375E-2</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1.4E-2</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1.4250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1.4500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1.4749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1.525E-2</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1.55E-2</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.575E-2</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1.6E-2</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1.6250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1.6500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1.6750000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1.7000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1.7250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1.7500000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1.7749999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1.7999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1.8249999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1.8499999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1.8749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1.9E-2</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1.925E-2</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1.95E-2</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1.975E-2</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>2.0250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>2.0500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>2.0750000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>2.1000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>2.1250000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>2.1499999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>2.1749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>2.1999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>2.2249999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>2.2499999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>2.2749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>2.3E-2</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>2.325E-2</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>2.35E-2</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>2.375E-2</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>2.4E-2</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>2.4250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>2.4500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>2.4750000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'9_c21_th0.451'!$D$2:$D$101</c:f>
+              <c:f>'9_c21_th0.339'!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.6118757142857143</c:v>
+                  <c:v>0.55376999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.223751428571429</c:v>
+                  <c:v>1.107538571428571</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8356285714285709</c:v>
+                  <c:v>1.661314285714286</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4474999999999998</c:v>
+                  <c:v>2.215071428571429</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0593857142857139</c:v>
+                  <c:v>2.7688428571428569</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.6712571428571432</c:v>
+                  <c:v>3.3226142857142862</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.2831285714285716</c:v>
+                  <c:v>3.8763857142857141</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.8949999999999996</c:v>
+                  <c:v>4.4301571428571416</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.5068857142857146</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.1187571428571426</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.7306285714285714</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7.3425142857142864</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7.9543857142857144</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8.5662571428571432</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9.1781428571428574</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>9.7900142857142871</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>10.40188571428571</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>11.013771428571429</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>11.62551428571429</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>12.23724285714286</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>12.848599999999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>13.459771428571431</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>14.07055714285714</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>14.681428571428571</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>15.29171428571429</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>15.90057142857143</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>16.506142857142859</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>17.10857142857143</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>17.70814285714286</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>18.301285714285711</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>18.879857142857141</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>19.44285714285714</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>20.02785714285714</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>20.618285714285719</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>21.21442857142857</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>21.81042857142857</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>22.406142857142861</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>22.998428571428569</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>23.591142857142859</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>24.185857142857142</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>24.777285714285711</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>25.367999999999999</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>25.963571428571431</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>26.555857142857139</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>27.15071428571429</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>27.74342857142857</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>28.336857142857141</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>28.93214285714286</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>29.526142857142851</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>30.116714285714291</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>30.705285714285711</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>31.297000000000001</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>31.887285714285721</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>32.478000000000002</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>33.069428571428567</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>33.656999999999996</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>34.241428571428571</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>34.821285714285708</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>35.402999999999999</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>35.969000000000001</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>36.48985714285714</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>36.793428571428571</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>36.548142857142857</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>35.602285714285713</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>30.612857142857141</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>23.970142857142861</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>19.654857142857139</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>14.75357142857143</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>9.0269999999999992</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>7.4252000000000002</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>6.1670142857142851</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>5.0960999999999999</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>3.8993714285714289</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1.9619</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.65453428571428574</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.34548142857142861</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.2847142857142857</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.26019428571428571</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.25612428571428569</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.25190428571428569</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.25272857142857141</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.25524857142857138</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.25834000000000001</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.25508857142857139</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.25674000000000002</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.25498714285714291</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.25460142857142848</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.2411814285714286</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.21149000000000001</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.19530857142857139</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.17774428571428569</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.16583428571428571</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.1606342857142857</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.1561942857142857</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.15490999999999999</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.15568142857142861</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.15680285714285719</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.15733</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.1570542857142857</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.15563142857142859</c:v>
+                  <c:v>4.9839285714285717</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2053,7 +3766,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4CCC-8748-B72A-525C2F56B4CA}"/>
+              <c16:uniqueId val="{00000000-EF30-5145-9A50-1522223953C3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2175,7 +3888,8 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>10%</a:t>
+              <a:rPr lang="en"/>
+              <a:t>9_c21_th0.451</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2201,10 +3915,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'9_c21_th0.451'!$C$2:$C$9</c:f>
+              <c:f>'9_c21_th0.451'!$C$2:$C$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>2.5000000000000001E-4</c:v>
                 </c:pt>
@@ -2228,16 +3942,292 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2499999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.7499999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5000000000000009E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.749999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.5000000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.2500000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.4999999999999989E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.2500000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.5000000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.7499999999999991E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.2499999999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.4999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.7500000000000017E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.025E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.0500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.0749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.15E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.175E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.225E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.2500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.2749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.325E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.35E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.375E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.4250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.4500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.4749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.525E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.55E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.575E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.6250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.6500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.6750000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.7250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.7500000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.7749999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.8249999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.8499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.8749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.925E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.95E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.975E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.0250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.0500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.0750000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.1250000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.1499999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.1749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.2249999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.2499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.2749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.325E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.35E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.375E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.4250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.4500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.4750000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'9_c21_th0.451'!$D$2:$D$9</c:f>
+              <c:f>'9_c21_th0.451'!$D$2:$D$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0.6118757142857143</c:v>
                 </c:pt>
@@ -2261,6 +4251,282 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>4.8949999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.5068857142857146</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.1187571428571426</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.7306285714285714</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.3425142857142864</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.9543857142857144</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.5662571428571432</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.1781428571428574</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.7900142857142871</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10.40188571428571</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.013771428571429</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11.62551428571429</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12.23724285714286</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12.848599999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13.459771428571431</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14.07055714285714</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14.681428571428571</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15.29171428571429</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15.90057142857143</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>16.506142857142859</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>17.10857142857143</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>17.70814285714286</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>18.301285714285711</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>18.879857142857141</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>19.44285714285714</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>20.02785714285714</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>20.618285714285719</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>21.21442857142857</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>21.81042857142857</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>22.406142857142861</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>22.998428571428569</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>23.591142857142859</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>24.185857142857142</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>24.777285714285711</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>25.367999999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>25.963571428571431</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>26.555857142857139</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>27.15071428571429</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>27.74342857142857</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>28.336857142857141</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>28.93214285714286</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>29.526142857142851</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>30.116714285714291</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>30.705285714285711</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>31.297000000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>31.887285714285721</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>32.478000000000002</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>33.069428571428567</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>33.656999999999996</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>34.241428571428571</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>34.821285714285708</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>35.402999999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>35.969000000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>36.48985714285714</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>36.793428571428571</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>36.548142857142857</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>35.602285714285713</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>30.612857142857141</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>23.970142857142861</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>19.654857142857139</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>14.75357142857143</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>9.0269999999999992</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7.4252000000000002</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>6.1670142857142851</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5.0960999999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3.8993714285714289</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.9619</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.65453428571428574</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.34548142857142861</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.2847142857142857</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.26019428571428571</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.25612428571428569</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.25190428571428569</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.25272857142857141</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.25524857142857138</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.25834000000000001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.25508857142857139</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.25674000000000002</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.25498714285714291</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.25460142857142848</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.2411814285714286</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.21149000000000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.19530857142857139</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.17774428571428569</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.16583428571428571</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.1606342857142857</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.1561942857142857</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.15490999999999999</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.15568142857142861</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.15680285714285719</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.15733</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.1570542857142857</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.15563142857142859</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2268,7 +4534,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-011C-6942-9EBA-0E64B8DC18EA}"/>
+              <c16:uniqueId val="{00000000-4CCC-8748-B72A-525C2F56B4CA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2301,6 +4567,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Strain [-]</a:t>
                 </a:r>
               </a:p>
@@ -2334,6 +4601,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Stress [MPa]</a:t>
                 </a:r>
               </a:p>
@@ -2390,8 +4658,8 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en"/>
-              <a:t>9_c21_th0.564</a:t>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>10%</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2417,12 +4685,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'9_c21_th0.564'!$C$2:$C$105</c:f>
+              <c:f>'9_c21_th0.451'!$C$2:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="104"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.5000000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5.0000000000000001E-4</c:v>
@@ -2444,615 +4712,39 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.2499999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.5000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.7499999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.2499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.5000000000000009E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.749999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.2500000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.4999999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.7499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5.2500000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5.4999999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5.7499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>6.2500000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6.5000000000000006E-3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6.7499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>7.000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>7.2500000000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>7.4999999999999989E-3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>7.7499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>8.0000000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>8.2500000000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>8.5000000000000006E-3</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>8.7499999999999991E-3</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>8.9999999999999993E-3</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>9.2499999999999995E-3</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>9.4999999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>9.7500000000000017E-3</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.025E-2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1.0500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1.0749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1.0999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1.125E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1.15E-2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1.175E-2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1.2E-2</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1.225E-2</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1.2500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1.2749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1.2999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1.325E-2</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1.35E-2</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1.375E-2</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1.4E-2</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1.4250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1.4500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1.4749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1.525E-2</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1.55E-2</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.575E-2</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1.6E-2</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1.6250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1.6500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1.6750000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1.7000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1.7250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1.7500000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1.7749999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1.7999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1.8249999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1.8499999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1.8749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1.9E-2</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1.925E-2</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1.95E-2</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1.975E-2</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>2.0250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>2.0500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>2.0750000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>2.1000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>2.1250000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>2.1499999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>2.1749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>2.1999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>2.2249999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>2.2499999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>2.2749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>2.3E-2</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>2.325E-2</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>2.35E-2</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>2.375E-2</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>2.4E-2</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>2.4250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>2.4500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>2.4750000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>2.4875000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>2.4937500000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>2.4962499999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>2.498125E-2</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'9_c21_th0.564'!$D$2:$D$105</c:f>
+              <c:f>'9_c21_th0.451'!$D$2:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="104"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.6118757142857143</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3616428571428569</c:v>
+                  <c:v>1.223751428571429</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0424571428571432</c:v>
+                  <c:v>1.8356285714285709</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.7232857142857139</c:v>
+                  <c:v>2.4474999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.4041000000000001</c:v>
+                  <c:v>3.0593857142857139</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.0849285714285717</c:v>
+                  <c:v>3.6712571428571432</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.7657428571428566</c:v>
+                  <c:v>4.2831285714285716</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.4465714285714286</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.1273857142857144</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.8082142857142864</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7.4890285714285714</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.1698571428571434</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8.8506714285714292</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9.5315000000000012</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>10.212314285714291</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>10.893142857142861</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>11.57395714285714</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>12.2545</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>12.93487142857143</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>13.61528571428572</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>14.29542857142857</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>14.97442857142857</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>15.653142857142861</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>16.33071428571429</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>17.007000000000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>17.679714285714279</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>18.347999999999999</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>19.004857142857141</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>19.64828571428572</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>20.273428571428571</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>20.90585714285714</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>21.53257142857143</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>22.138999999999999</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>22.779142857142858</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>23.425142857142859</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>24.070285714285721</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>24.717571428571429</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>25.36542857142857</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>26.013000000000002</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>26.66357142857143</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>27.312142857142859</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>27.95814285714286</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>28.599142857142859</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>29.24342857142857</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>29.893000000000001</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>30.540285714285719</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>31.184999999999999</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>31.829142857142859</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>32.466285714285711</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>33.108714285714292</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>33.726285714285723</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>34.273285714285713</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>34.726999999999997</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>34.941571428571429</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>34.908428571428573</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>34.551142857142857</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>33.861714285714292</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>32.586285714285722</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>29.460714285714289</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>24.737285714285711</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>15.62757142857143</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>9.2256714285714292</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>7.4344999999999999</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>6.0487571428571432</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>4.3375428571428571</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>2.8121142857142858</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>2.361528571428571</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>2.1723571428571429</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>2.030985714285714</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1.8978285714285721</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1.746585714285714</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1.5734571428571431</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1.2638557142857141</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1.157992857142857</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1.0870171428571429</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.99519714285714278</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.90527714285714289</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.84809000000000001</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.79677142857142857</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.75549428571428567</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.73273857142857146</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.70210714285714282</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.68364142857142862</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.66199857142857144</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.64025999999999994</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.61717857142857147</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.59474714285714292</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.58576857142857142</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.56785285714285705</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.55651714285714293</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.55040428571428579</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.53761999999999999</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.52343714285714282</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.51607142857142863</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.50963714285714279</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.50811714285714282</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.5022428571428571</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.49661285714285719</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.49829857142857142</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.49814142857142862</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0.49597857142857138</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>0.49336714285714278</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>0.48998000000000003</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0.48570714285714278</c:v>
+                  <c:v>4.8949999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3060,7 +4752,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1486-8E49-8DD7-3184D9A05A25}"/>
+              <c16:uniqueId val="{00000000-011C-6942-9EBA-0E64B8DC18EA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3184,8 +4876,8 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>10%</a:t>
+              <a:rPr lang="en"/>
+              <a:t>9_c21_th0.451</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3199,7 +4891,7 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:spPr>
             <a:ln>
@@ -3211,10 +4903,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'9_c21_th0.564'!$C$2:$C$10</c:f>
+              <c:f>'9_c21_th0.564'!$C$2:$C$105</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3241,16 +4933,301 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2.2499999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.7499999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5000000000000009E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.749999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.5000000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.2500000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.4999999999999989E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.2500000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.5000000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.7499999999999991E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.2499999999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.4999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.7500000000000017E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.025E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.0500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.0749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.15E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.175E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.225E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.2500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.2749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.325E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.35E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.375E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.4250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.4500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.4749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.525E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.55E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.575E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.6250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.6500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.6750000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.7250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.7500000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.7749999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.8249999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.8499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.8749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.925E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.95E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.975E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.0250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.0500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.0750000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.1250000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.1499999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.1749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.2249999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.2499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.2749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.325E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.35E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.375E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.4250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.4500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.4750000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.4875000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.4937500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.4962499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.498125E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'9_c21_th0.564'!$D$2:$D$10</c:f>
+              <c:f>'9_c21_th0.564'!$D$2:$D$105</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3277,6 +5254,291 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>6.1273857142857144</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.8082142857142864</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.4890285714285714</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.1698571428571434</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.8506714285714292</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.5315000000000012</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.212314285714291</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.893142857142861</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.57395714285714</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.2545</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.93487142857143</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.61528571428572</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14.29542857142857</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14.97442857142857</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15.653142857142861</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16.33071428571429</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>17.007000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17.679714285714279</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>18.347999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>19.004857142857141</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>19.64828571428572</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>20.273428571428571</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>20.90585714285714</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>21.53257142857143</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>22.138999999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>22.779142857142858</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>23.425142857142859</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>24.070285714285721</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>24.717571428571429</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>25.36542857142857</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>26.013000000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>26.66357142857143</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>27.312142857142859</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>27.95814285714286</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>28.599142857142859</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>29.24342857142857</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>29.893000000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>30.540285714285719</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>31.184999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>31.829142857142859</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>32.466285714285711</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>33.108714285714292</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>33.726285714285723</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>34.273285714285713</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>34.726999999999997</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>34.941571428571429</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>34.908428571428573</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>34.551142857142857</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>33.861714285714292</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>32.586285714285722</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>29.460714285714289</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>24.737285714285711</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>15.62757142857143</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>9.2256714285714292</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7.4344999999999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.0487571428571432</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.3375428571428571</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.8121142857142858</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.361528571428571</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.1723571428571429</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.030985714285714</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.8978285714285721</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.746585714285714</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.5734571428571431</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.2638557142857141</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.157992857142857</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.0870171428571429</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.99519714285714278</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.90527714285714289</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.84809000000000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.79677142857142857</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.75549428571428567</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.73273857142857146</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.70210714285714282</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.68364142857142862</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.66199857142857144</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.64025999999999994</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.61717857142857147</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.59474714285714292</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.58576857142857142</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.56785285714285705</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.55651714285714293</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.55040428571428579</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.53761999999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.52343714285714282</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.51607142857142863</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.50963714285714279</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.50811714285714282</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.5022428571428571</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.49661285714285719</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.49829857142857142</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.49814142857142862</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.49597857142857138</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.49336714285714278</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.48998000000000003</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.48570714285714278</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3284,7 +5546,643 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-ACFB-0A45-B3F2-99B793F60EA1}"/>
+              <c16:uniqueId val="{00000004-6582-4A42-A2EC-03F38DE33F28}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'9_c21_th0.451'!$C$2:$C$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>2.5000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5000000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.25E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.75E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2499999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.7499999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5000000000000009E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.749999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.5000000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.2500000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.4999999999999989E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.2500000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.5000000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.7499999999999991E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.2499999999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.4999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.7500000000000017E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.025E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.0500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.0749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.15E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.175E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.225E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.2500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.2749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.325E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.35E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.375E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.4250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.4500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.4749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.525E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.55E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.575E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.6250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.6500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.6750000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.7250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.7500000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.7749999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.8249999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.8499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.8749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.925E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.95E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.975E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.0250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.0500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.0750000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.1250000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.1499999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.1749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.2249999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.2499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.2749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.325E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.35E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.375E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.4250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.4500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.4750000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'9_c21_th0.451'!$D$2:$D$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.6118757142857143</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.223751428571429</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8356285714285709</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4474999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0593857142857139</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.6712571428571432</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.2831285714285716</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.8949999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.5068857142857146</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.1187571428571426</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.7306285714285714</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.3425142857142864</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.9543857142857144</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.5662571428571432</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.1781428571428574</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.7900142857142871</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10.40188571428571</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.013771428571429</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11.62551428571429</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12.23724285714286</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12.848599999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13.459771428571431</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14.07055714285714</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14.681428571428571</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15.29171428571429</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15.90057142857143</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>16.506142857142859</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>17.10857142857143</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>17.70814285714286</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>18.301285714285711</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>18.879857142857141</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>19.44285714285714</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>20.02785714285714</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>20.618285714285719</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>21.21442857142857</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>21.81042857142857</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>22.406142857142861</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>22.998428571428569</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>23.591142857142859</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>24.185857142857142</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>24.777285714285711</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>25.367999999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>25.963571428571431</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>26.555857142857139</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>27.15071428571429</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>27.74342857142857</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>28.336857142857141</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>28.93214285714286</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>29.526142857142851</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>30.116714285714291</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>30.705285714285711</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>31.297000000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>31.887285714285721</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>32.478000000000002</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>33.069428571428567</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>33.656999999999996</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>34.241428571428571</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>34.821285714285708</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>35.402999999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>35.969000000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>36.48985714285714</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>36.793428571428571</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>36.548142857142857</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>35.602285714285713</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>30.612857142857141</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>23.970142857142861</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>19.654857142857139</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>14.75357142857143</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>9.0269999999999992</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7.4252000000000002</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>6.1670142857142851</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5.0960999999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3.8993714285714289</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.9619</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.65453428571428574</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.34548142857142861</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.2847142857142857</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.26019428571428571</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.25612428571428569</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.25190428571428569</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.25272857142857141</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.25524857142857138</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.25834000000000001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.25508857142857139</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.25674000000000002</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.25498714285714291</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.25460142857142848</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.2411814285714286</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.21149000000000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.19530857142857139</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.17774428571428569</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.16583428571428571</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.1606342857142857</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.1561942857142857</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.15490999999999999</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.15568142857142861</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.15680285714285719</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.15733</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.1570542857142857</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.15563142857142859</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6582-4A42-A2EC-03F38DE33F28}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3408,6 +6306,1024 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en"/>
+              <a:t>9_c21_th0.564</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'9_c21_th0.564'!$C$2:$C$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="104"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5000000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.25E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.75E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2499999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.7499999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5000000000000009E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.749999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.5000000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.2500000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.4999999999999989E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.2500000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.5000000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.7499999999999991E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.2499999999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.4999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.7500000000000017E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.025E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.0500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.0749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.15E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.175E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.225E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.2500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.2749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.325E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.35E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.375E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.4250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.4500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.4749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.525E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.55E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.575E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.6250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.6500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.6750000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.7250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.7500000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.7749999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.8249999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.8499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.8749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.925E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.95E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.975E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.0250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.0500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.0750000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.1250000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.1499999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.1749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.2249999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.2499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.2749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.325E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.35E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.375E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.4250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.4500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.4750000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.4875000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.4937500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.4962499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.498125E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'9_c21_th0.564'!$D$2:$D$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="104"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3616428571428569</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0424571428571432</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7232857142857139</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4041000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0849285714285717</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.7657428571428566</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.4465714285714286</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.1273857142857144</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.8082142857142864</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.4890285714285714</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.1698571428571434</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.8506714285714292</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.5315000000000012</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.212314285714291</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.893142857142861</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.57395714285714</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.2545</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.93487142857143</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.61528571428572</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14.29542857142857</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14.97442857142857</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15.653142857142861</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16.33071428571429</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>17.007000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17.679714285714279</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>18.347999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>19.004857142857141</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>19.64828571428572</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>20.273428571428571</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>20.90585714285714</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>21.53257142857143</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>22.138999999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>22.779142857142858</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>23.425142857142859</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>24.070285714285721</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>24.717571428571429</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>25.36542857142857</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>26.013000000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>26.66357142857143</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>27.312142857142859</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>27.95814285714286</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>28.599142857142859</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>29.24342857142857</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>29.893000000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>30.540285714285719</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>31.184999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>31.829142857142859</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>32.466285714285711</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>33.108714285714292</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>33.726285714285723</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>34.273285714285713</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>34.726999999999997</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>34.941571428571429</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>34.908428571428573</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>34.551142857142857</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>33.861714285714292</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>32.586285714285722</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>29.460714285714289</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>24.737285714285711</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>15.62757142857143</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>9.2256714285714292</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7.4344999999999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.0487571428571432</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.3375428571428571</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.8121142857142858</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.361528571428571</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.1723571428571429</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.030985714285714</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.8978285714285721</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.746585714285714</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.5734571428571431</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.2638557142857141</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.157992857142857</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.0870171428571429</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.99519714285714278</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.90527714285714289</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.84809000000000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.79677142857142857</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.75549428571428567</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.73273857142857146</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.70210714285714282</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.68364142857142862</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.66199857142857144</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.64025999999999994</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.61717857142857147</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.59474714285714292</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.58576857142857142</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.56785285714285705</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.55651714285714293</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.55040428571428579</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.53761999999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.52343714285714282</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.51607142857142863</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.50963714285714279</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.50811714285714282</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.5022428571428571</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.49661285714285719</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.49829857142857142</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.49814142857142862</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.49597857142857138</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.49336714285714278</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.48998000000000003</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.48570714285714278</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1486-8E49-8DD7-3184D9A05A25}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="10"/>
+        <c:axId val="20"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en"/>
+                  <a:t>Strain [-]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="20"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="20"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en"/>
+                  <a:t>Stress [MPa]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>10%</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'9_c21_th0.564'!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5000000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.25E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.75E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2499999999999998E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'9_c21_th0.564'!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3616428571428569</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0424571428571432</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7232857142857139</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4041000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0849285714285717</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.7657428571428566</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.4465714285714286</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.1273857142857144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ACFB-0A45-B3F2-99B793F60EA1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="10"/>
+        <c:axId val="20"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en"/>
+                  <a:t>Strain [-]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="20"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="20"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en"/>
+                  <a:t>Stress [MPa]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
               <a:t>9_c21_th0.677</a:t>
             </a:r>
           </a:p>
@@ -4175,1019 +8091,45 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>10%</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'9_c21_th0.677'!$C$2:$C$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>2.5000000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.0000000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.5000000000000002E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.25E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.5E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.75E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.2499999999999998E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'9_c21_th0.677'!$D$2:$D$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.75732571428571427</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.5146571428571429</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.2719857142857141</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.0293000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.7866285714285719</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.5439571428571428</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.3012857142857142</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.0586142857142864</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.8159428571428569</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-24C4-CD42-AC4B-10A16324C124}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="10"/>
-        <c:axId val="20"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="10"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Strain [-]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="20"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="20"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Stress [MPa]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="10"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>169600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>110065</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6015300" cy="3953070"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBFECC85-8751-3345-987C-47D2966DE866}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>9_c21_th0.79</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'9_c21_th0.79'!$C$2:$C$105</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="104"/>
-                <c:pt idx="0">
-                  <c:v>2.5000000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.0000000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.5000000000000002E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.25E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.5E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.75E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.2499999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.5000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.7499999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.2499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.5000000000000009E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.749999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.2500000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.4999999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.7499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5.2500000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5.4999999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5.7499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>6.2500000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6.5000000000000006E-3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6.7499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>7.000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>7.2500000000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>7.4999999999999989E-3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>7.7499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>8.0000000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>8.2500000000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>8.5000000000000006E-3</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>8.7499999999999991E-3</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>8.9999999999999993E-3</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>9.2499999999999995E-3</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>9.4999999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>9.7500000000000017E-3</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.025E-2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1.0500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1.0749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1.0999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1.125E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1.15E-2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1.175E-2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1.2E-2</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1.225E-2</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1.2500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1.2749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1.2999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1.325E-2</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1.35E-2</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1.375E-2</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1.4E-2</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1.4250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1.4500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1.4749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1.525E-2</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1.55E-2</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.575E-2</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1.6E-2</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1.6250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1.6500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1.6750000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1.7000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1.7250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1.7500000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1.7749999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1.7999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1.8249999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1.8499999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1.8749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1.9E-2</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1.925E-2</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1.95E-2</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1.975E-2</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>2.0250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>2.0500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>2.0750000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>2.1000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>2.1250000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>2.1499999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>2.1749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>2.1999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>2.2249999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>2.2499999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>2.2749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>2.3E-2</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>2.325E-2</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>2.35E-2</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>2.375E-2</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>2.4E-2</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>2.4250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>2.4500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>2.4750000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>2.4875000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>2.4937500000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>2.4962499999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>2.498125E-2</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>2.5000000000000001E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'9_c21_th0.79'!$D$2:$D$105</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="104"/>
-                <c:pt idx="0">
-                  <c:v>0.83870571428571428</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.677414285714286</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.516114285714286</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.354828571428571</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.1935285714285717</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.0322428571428572</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.8709428571428566</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.7096428571428577</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.5483571428571423</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8.3870571428571434</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9.225771428571429</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>10.06447142857143</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10.90318571428571</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>11.74188571428571</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>12.580585714285711</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>13.4193</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>14.257757142857139</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>15.09614285714286</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>15.934142857142859</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>16.771999999999998</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>17.608714285714289</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>18.444714285714291</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>19.279714285714281</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>20.110571428571429</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>20.937000000000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>21.754285714285711</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>22.555571428571429</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>23.330571428571432</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>24.070428571428572</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>24.766285714285711</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>25.364142857142859</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>26.056999999999999</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>26.802142857142861</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>27.549428571428571</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>28.303000000000001</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>29.06128571428571</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>29.827571428571432</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>30.590714285714281</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>31.344571428571431</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>32.080285714285708</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>32.77928571428572</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>33.382428571428569</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>33.760857142857148</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>33.821571428571431</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>33.620428571428569</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>33.222285714285711</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>32.83757142857143</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>32.369714285714288</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>31.55985714285714</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>28.472285714285711</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>24.48657142857143</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>21.052857142857139</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>13.13132857142857</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>10.69641428571429</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>8.4500999999999991</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>6.7656428571428577</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>5.5536571428571424</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>4.4806857142857144</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>3.3381857142857139</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>2.1756142857142859</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1.5023142857142859</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1.3164128571428571</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.18973</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1.0658828571428569</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1.0030942857142859</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.94843428571428567</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.89298</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.84444285714285705</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.80870999999999993</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.76700857142857148</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.72726857142857138</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.70737000000000005</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.68728428571428579</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.67763571428571423</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.66249000000000002</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.6404657142857143</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.62731999999999999</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.6240242857142857</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.62144571428571427</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.6169485714285714</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.61430285714285715</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.6023857142857143</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.60158571428571428</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.59611428571428571</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.59361714285714284</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.59397285714285708</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.59271142857142856</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.59562428571428572</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.59650000000000003</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.59841714285714287</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.59597428571428579</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.5992128571428571</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.60134857142857145</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.59870714285714288</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.59495142857142858</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.59179999999999999</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.58817428571428565</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.58637000000000006</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.58552285714285723</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.58685142857142858</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0.58454285714285714</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>0.58180428571428577</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>0.57580857142857145</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0.56958000000000009</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-58A1-C942-B445-AE7A5BF5618E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="10"/>
-        <c:axId val="20"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="10"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Strain [-]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="20"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="20"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Stress [MPa]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="10"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -5254,7 +8196,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -5318,10 +8260,43 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F0E7277-BAFE-D648-8048-5D3CBF023FC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -5388,7 +8363,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -5455,7 +8430,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -5809,12 +8784,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7365,7 +10343,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
@@ -8809,7 +11789,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
